--- a/0咪咕音乐/咪咕音乐v390爱唱优化/咪咕爱唱.xlsx
+++ b/0咪咕音乐/咪咕音乐v390爱唱优化/咪咕爱唱.xlsx
@@ -10,14 +10,14 @@
     <sheet name="后台流程类" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">后台流程类!$A$1:$AB$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">后台流程类!$A$1:$AB$64</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="204">
   <si>
     <t>*功能模块</t>
   </si>
@@ -97,6 +97,9 @@
     <t>1、音乐搜索系统正常、solr正常、有全量数据</t>
   </si>
   <si>
+    <t>L G 2.0</t>
+  </si>
+  <si>
     <t>1、爱唱歌曲接口搜索gbqq
 2、查看返回报文</t>
   </si>
@@ -133,7 +136,7 @@
     <t>歌曲+歌手简拼：gdyrdqs dyc</t>
   </si>
   <si>
-    <t>1、爱唱歌曲接口搜索gdyrdqs syc
+    <t>1、爱唱歌曲接口搜索gdyrdqs dyc
 2、查看返回报文</t>
   </si>
   <si>
@@ -141,6 +144,9 @@
   </si>
   <si>
     <t>歌曲全拼：gaobaiqiqiu</t>
+  </si>
+  <si>
+    <t>Let Go 2.0</t>
   </si>
   <si>
     <t>1、爱唱歌曲接口搜索gaobaiqiqiu
@@ -416,7 +422,7 @@
     <t>设置同名歌曲hotlevel:C不为0</t>
   </si>
   <si>
-    <t>1、爱唱歌曲接口搜索设置的歌曲
+    <t>1、爱唱歌曲接口搜索设置的歌曲fengfeish
 2、查看返回报文</t>
   </si>
   <si>
@@ -425,6 +431,10 @@
   <si>
     <t>设置hot：A 《 B
 newhot：A 》 B</t>
+  </si>
+  <si>
+    <t>1、爱唱歌曲接口搜索设置的歌曲fengfeisha
+2、查看返回报文</t>
   </si>
   <si>
     <t>1、接口请求成功，歌曲按照hotlevel&gt;hot&gt;newhot排序，A在B前面</t>
@@ -451,7 +461,7 @@
     <t>存在的问题</t>
   </si>
   <si>
-    <t>简拼前缀无法召回部分歌曲，例如输入“JHY”，无法召回“交换余生”</t>
+    <t>简拼前缀召回部歌曲</t>
   </si>
   <si>
     <t>1、爱唱歌曲接口搜索JHY
@@ -461,7 +471,7 @@
     <t>1、接口请求成功，返回歌曲交换余生</t>
   </si>
   <si>
-    <t>简拼全匹配无法召回部分内容。比如：输入“ＮＧ”　无法召回“逆光”。竞品可以召回</t>
+    <t>简拼全匹配召回内容</t>
   </si>
   <si>
     <t>1、爱唱歌曲接口搜索NG
@@ -471,7 +481,7 @@
     <t>1、接口请求成功，返回歌曲逆光</t>
   </si>
   <si>
-    <t>英文歌曲不支持首拼搜索，仅支持全拼搜索。例如输入“ＹＢＷＭ”，无法召回“You belong with me”</t>
+    <t>英文歌曲首拼搜索</t>
   </si>
   <si>
     <t>1、爱唱歌曲接口搜索YBWM
@@ -481,7 +491,7 @@
     <t>1、接口请求成功，返回You belong with me</t>
   </si>
   <si>
-    <t>简拼全匹配召回的内容由于有专辑召回的，ＴＶ端不展示专辑信息，在ＴＶ端看不出逻辑。</t>
+    <t>专辑简拼全匹配不召回专辑内容</t>
   </si>
   <si>
     <t>1、爱唱歌曲接口搜索yln/yrftx
@@ -497,7 +507,7 @@
     <t>简拼全匹配gbqq</t>
   </si>
   <si>
-    <t>bwsezdg/nhywzy</t>
+    <t>bwsezdg/nhywzy/100 P L</t>
   </si>
   <si>
     <t>1、爱唱视频接口搜索gbqq
@@ -510,7 +520,7 @@
     <t>全拼全匹配gaobaiqiqiu</t>
   </si>
   <si>
-    <t>guangnianzhiwai</t>
+    <t>guangnianzhiwai/100 Pure Love</t>
   </si>
   <si>
     <t>1、爱唱视频接口搜索gaobaiqiqiu
@@ -530,21 +540,6 @@
     <t>1、请求成功，不返回mv周杰伦hot大于1万或hotlevel大于1的mv</t>
   </si>
   <si>
-    <t>hot&lt;1万和hotlevel=0</t>
-  </si>
-  <si>
-    <t>pengyou</t>
-  </si>
-  <si>
-    <t>1、请求成功，不返回mv朋友（live）（1104729043）</t>
-  </si>
-  <si>
-    <t>删除</t>
-  </si>
-  <si>
-    <t>已无热度限制</t>
-  </si>
-  <si>
     <t>简拼前缀</t>
   </si>
   <si>
@@ -600,7 +595,7 @@
     <t>设置hotlevel：C不为0</t>
   </si>
   <si>
-    <t>1、爱唱视频接口搜索mv
+    <t>1、爱唱视频接口搜索mv nide
 2、查看返回报文</t>
   </si>
   <si>
@@ -613,7 +608,7 @@
     <t>1、请求成功，返回按照人工&gt;全匹配&gt;前缀，B排在A前面</t>
   </si>
   <si>
-    <t>部分内容简拼前缀匹配无法召回，例如输入“chj”无法召回“彩虹金刚”，需要输入“chjg”才可以</t>
+    <t>内容简拼前缀匹配召回</t>
   </si>
   <si>
     <t>1、爱唱视频接口搜索chj
@@ -643,8 +638,7 @@
 2、纠错正常</t>
   </si>
   <si>
-    <t>恰克飞鸟
-刘德花</t>
+    <t>恰克飞鸟/刘德花/王军风飞沙</t>
   </si>
   <si>
     <t>1、纠错接口搜索纠错词
@@ -654,16 +648,22 @@
     <t>1、接口请求成功，返回纠错结果：恰克与飞鸟/刘德华</t>
   </si>
   <si>
-    <t>若某一搜索词包含于纠错词典某个词中，且词典对应的（歌手hotlevel&gt;1或者hot&gt;2万）；或者（歌曲/专辑/MV的hotlevel&gt;1，或者hot &gt; 30万），则不继续进行纠错
-如果是精确匹配的，就返回对应的类型，如果是前中缀匹配的，纠错不返回结果</t>
-  </si>
-  <si>
-    <t>张碧
-chen
-和乐器</t>
-  </si>
-  <si>
-    <t>1、接口请求成功，返回纠错结果：张碧晨/和乐器乐队</t>
+    <t>搜索词包含于纠错词典某个词中</t>
+  </si>
+  <si>
+    <t>张碧/刘德</t>
+  </si>
+  <si>
+    <t>1、接口请求成功，不返回纠错结果</t>
+  </si>
+  <si>
+    <t>精确匹配返回对应的类型</t>
+  </si>
+  <si>
+    <t>chen/刘德华</t>
+  </si>
+  <si>
+    <t>1、接口请求成功，返回纠错结果：chen</t>
   </si>
   <si>
     <t>特殊拼音处理</t>
@@ -691,9 +691,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -759,6 +759,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -766,14 +773,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,48 +787,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -840,25 +817,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,6 +841,53 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -887,16 +895,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,25 +929,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,37 +1007,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,67 +1019,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,31 +1061,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,21 +1222,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1252,25 +1237,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1286,11 +1262,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1313,8 +1313,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1326,149 +1326,149 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1519,9 +1519,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1940,10 +1937,10 @@
   <sheetPr/>
   <dimension ref="A1:AB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N65" sqref="N65"/>
+      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -2028,9 +2025,9 @@
       <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="10" t="s">
@@ -2055,10 +2052,10 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
       <c r="T2" s="10"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A3" s="10"/>
@@ -2124,22 +2121,24 @@
       <c r="I5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="31"/>
+      <c r="J5" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="K5" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="29"/>
+        <v>28</v>
+      </c>
+      <c r="M5" s="28"/>
       <c r="N5" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O5" s="11"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A6" s="11"/>
@@ -2148,31 +2147,31 @@
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
       <c r="F6" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="31"/>
+      <c r="J6" s="30"/>
       <c r="K6" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="29"/>
+        <v>33</v>
+      </c>
+      <c r="M6" s="28"/>
       <c r="N6" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A7" s="11"/>
@@ -2181,7 +2180,7 @@
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
       <c r="F7" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="15" t="s">
@@ -2190,22 +2189,22 @@
       <c r="I7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="31"/>
+      <c r="J7" s="30"/>
       <c r="K7" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="29"/>
+        <v>36</v>
+      </c>
+      <c r="M7" s="28"/>
       <c r="N7" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O7" s="11"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A8" s="11"/>
@@ -2214,31 +2213,31 @@
       <c r="D8" s="13"/>
       <c r="E8" s="14"/>
       <c r="F8" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="31"/>
+      <c r="J8" s="30"/>
       <c r="K8" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="29"/>
+        <v>39</v>
+      </c>
+      <c r="M8" s="28"/>
       <c r="N8" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O8" s="11"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A9" s="11"/>
@@ -2247,7 +2246,7 @@
       <c r="D9" s="13"/>
       <c r="E9" s="14"/>
       <c r="F9" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="15" t="s">
@@ -2256,22 +2255,24 @@
       <c r="I9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="31"/>
+      <c r="J9" s="30" t="s">
+        <v>41</v>
+      </c>
       <c r="K9" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="29"/>
+        <v>28</v>
+      </c>
+      <c r="M9" s="28"/>
       <c r="N9" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O9" s="11"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A10" s="11"/>
@@ -2280,31 +2281,31 @@
       <c r="D10" s="13"/>
       <c r="E10" s="16"/>
       <c r="F10" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="31"/>
+      <c r="J10" s="30"/>
       <c r="K10" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="29"/>
+        <v>45</v>
+      </c>
+      <c r="M10" s="28"/>
       <c r="N10" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="11"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A11" s="11"/>
@@ -2313,7 +2314,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="16"/>
       <c r="F11" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="15" t="s">
@@ -2322,22 +2323,22 @@
       <c r="I11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="31"/>
+      <c r="J11" s="30"/>
       <c r="K11" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="29"/>
+        <v>36</v>
+      </c>
+      <c r="M11" s="28"/>
       <c r="N11" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="11"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A12" s="11"/>
@@ -2346,31 +2347,31 @@
       <c r="D12" s="13"/>
       <c r="E12" s="16"/>
       <c r="F12" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="31"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="29"/>
+        <v>45</v>
+      </c>
+      <c r="M12" s="28"/>
       <c r="N12" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O12" s="11"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A13" s="11"/>
@@ -2379,7 +2380,7 @@
       <c r="D13" s="13"/>
       <c r="E13" s="16"/>
       <c r="F13" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="15" t="s">
@@ -2388,22 +2389,22 @@
       <c r="I13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="31"/>
+      <c r="J13" s="30"/>
       <c r="K13" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="M13" s="29"/>
+        <v>52</v>
+      </c>
+      <c r="M13" s="28"/>
       <c r="N13" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O13" s="11"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A14" s="11"/>
@@ -2412,31 +2413,31 @@
       <c r="D14" s="13"/>
       <c r="E14" s="16"/>
       <c r="F14" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="31"/>
+      <c r="J14" s="30"/>
       <c r="K14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="L14" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="M14" s="29"/>
+      <c r="M14" s="28"/>
       <c r="N14" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O14" s="11"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A15" s="11"/>
@@ -2445,7 +2446,7 @@
       <c r="D15" s="13"/>
       <c r="E15" s="16"/>
       <c r="F15" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="15" t="s">
@@ -2454,22 +2455,22 @@
       <c r="I15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="31"/>
+      <c r="J15" s="30"/>
       <c r="K15" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="M15" s="29"/>
+        <v>57</v>
+      </c>
+      <c r="M15" s="28"/>
       <c r="N15" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O15" s="11"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A16" s="11"/>
@@ -2478,31 +2479,31 @@
       <c r="D16" s="13"/>
       <c r="E16" s="16"/>
       <c r="F16" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="31"/>
+      <c r="J16" s="30"/>
       <c r="K16" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="L16" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="M16" s="29"/>
+      <c r="M16" s="28"/>
       <c r="N16" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O16" s="11"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A17" s="11"/>
@@ -2511,7 +2512,7 @@
       <c r="D17" s="13"/>
       <c r="E17" s="16"/>
       <c r="F17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="15" t="s">
@@ -2520,22 +2521,22 @@
       <c r="I17" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="31"/>
+      <c r="J17" s="30"/>
       <c r="K17" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="M17" s="29"/>
+        <v>62</v>
+      </c>
+      <c r="M17" s="28"/>
       <c r="N17" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O17" s="11"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A18" s="11"/>
@@ -2544,29 +2545,29 @@
       <c r="D18" s="13"/>
       <c r="E18" s="16"/>
       <c r="F18" s="13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="15"/>
       <c r="I18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="31"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29" t="s">
-        <v>28</v>
+        <v>65</v>
+      </c>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="O18" s="11"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A19" s="11"/>
@@ -2575,7 +2576,7 @@
       <c r="D19" s="13"/>
       <c r="E19" s="16"/>
       <c r="F19" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="15" t="s">
@@ -2584,22 +2585,22 @@
       <c r="I19" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="31"/>
+      <c r="J19" s="30"/>
       <c r="K19" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="M19" s="29"/>
+        <v>68</v>
+      </c>
+      <c r="M19" s="28"/>
       <c r="N19" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O19" s="11"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A20" s="11"/>
@@ -2608,31 +2609,31 @@
       <c r="D20" s="13"/>
       <c r="E20" s="16"/>
       <c r="F20" s="13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="31"/>
+      <c r="J20" s="30"/>
       <c r="K20" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="M20" s="29"/>
+        <v>71</v>
+      </c>
+      <c r="M20" s="28"/>
       <c r="N20" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O20" s="11"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A21" s="11"/>
@@ -2641,31 +2642,31 @@
       <c r="D21" s="13"/>
       <c r="E21" s="16"/>
       <c r="F21" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="31"/>
+      <c r="J21" s="30"/>
       <c r="K21" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M21" s="29"/>
+        <v>74</v>
+      </c>
+      <c r="M21" s="28"/>
       <c r="N21" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O21" s="11"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A22" s="11"/>
@@ -2674,31 +2675,31 @@
       <c r="D22" s="13"/>
       <c r="E22" s="16"/>
       <c r="F22" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I22" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="31"/>
+      <c r="J22" s="30"/>
       <c r="K22" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="M22" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="M22" s="28"/>
       <c r="N22" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O22" s="11"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A23" s="11"/>
@@ -2707,31 +2708,31 @@
       <c r="D23" s="13"/>
       <c r="E23" s="16"/>
       <c r="F23" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="31"/>
+      <c r="J23" s="30"/>
       <c r="K23" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="M23" s="29"/>
+        <v>80</v>
+      </c>
+      <c r="M23" s="28"/>
       <c r="N23" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O23" s="11"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A24" s="11"/>
@@ -2740,29 +2741,29 @@
       <c r="D24" s="13"/>
       <c r="E24" s="16"/>
       <c r="F24" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="31"/>
+      <c r="J24" s="30"/>
       <c r="K24" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="M24" s="29"/>
-      <c r="N24" s="33"/>
+        <v>83</v>
+      </c>
+      <c r="M24" s="28"/>
+      <c r="N24" s="32"/>
       <c r="O24" s="11"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A25" s="11"/>
@@ -2771,7 +2772,7 @@
       <c r="D25" s="13"/>
       <c r="E25" s="16"/>
       <c r="F25" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="15" t="s">
@@ -2780,24 +2781,24 @@
       <c r="I25" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="31" t="s">
-        <v>83</v>
+      <c r="J25" s="30" t="s">
+        <v>85</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="M25" s="29"/>
+        <v>87</v>
+      </c>
+      <c r="M25" s="28"/>
       <c r="N25" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O25" s="11"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A26" s="11"/>
@@ -2806,7 +2807,7 @@
       <c r="D26" s="13"/>
       <c r="E26" s="16"/>
       <c r="F26" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="15" t="s">
@@ -2815,24 +2816,24 @@
       <c r="I26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="31" t="s">
-        <v>87</v>
+      <c r="J26" s="30" t="s">
+        <v>89</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="M26" s="29"/>
+        <v>91</v>
+      </c>
+      <c r="M26" s="28"/>
       <c r="N26" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O26" s="11"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="60" spans="1:19">
       <c r="A27" s="11"/>
@@ -2841,33 +2842,33 @@
       <c r="D27" s="13"/>
       <c r="E27" s="16"/>
       <c r="F27" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J27" s="31" t="s">
-        <v>91</v>
+      <c r="J27" s="30" t="s">
+        <v>93</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="M27" s="29"/>
+        <v>95</v>
+      </c>
+      <c r="M27" s="28"/>
       <c r="N27" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O27" s="11"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A28" s="11"/>
@@ -2876,33 +2877,33 @@
       <c r="D28" s="13"/>
       <c r="E28" s="16"/>
       <c r="F28" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="31" t="s">
-        <v>95</v>
+      <c r="J28" s="30" t="s">
+        <v>97</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="M28" s="29"/>
+        <v>99</v>
+      </c>
+      <c r="M28" s="28"/>
       <c r="N28" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O28" s="11"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A29" s="11"/>
@@ -2911,31 +2912,31 @@
       <c r="D29" s="13"/>
       <c r="E29" s="16"/>
       <c r="F29" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G29" s="16"/>
-      <c r="H29" s="17" t="s">
-        <v>30</v>
+      <c r="H29" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="31"/>
+      <c r="J29" s="30"/>
       <c r="K29" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="M29" s="29"/>
+        <v>102</v>
+      </c>
+      <c r="M29" s="28"/>
       <c r="N29" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O29" s="11"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A30" s="11"/>
@@ -2944,29 +2945,29 @@
       <c r="D30" s="13"/>
       <c r="E30" s="16"/>
       <c r="F30" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G30" s="16"/>
-      <c r="H30" s="17" t="s">
-        <v>30</v>
+      <c r="H30" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="31"/>
+      <c r="J30" s="30"/>
       <c r="K30" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="M30" s="29"/>
+        <v>105</v>
+      </c>
+      <c r="M30" s="28"/>
       <c r="N30" s="14"/>
       <c r="O30" s="11"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A31" s="11"/>
@@ -2975,33 +2976,33 @@
       <c r="D31" s="13"/>
       <c r="E31" s="16"/>
       <c r="F31" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J31" s="31" t="s">
-        <v>105</v>
+      <c r="J31" s="30" t="s">
+        <v>107</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="M31" s="29"/>
+        <v>109</v>
+      </c>
+      <c r="M31" s="28"/>
       <c r="N31" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O31" s="11"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A32" s="11"/>
@@ -3010,33 +3011,33 @@
       <c r="D32" s="13"/>
       <c r="E32" s="16"/>
       <c r="F32" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J32" s="31" t="s">
+      <c r="J32" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="L32" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="K32" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="M32" s="29"/>
+      <c r="M32" s="28"/>
       <c r="N32" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O32" s="11"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A33" s="11"/>
@@ -3045,33 +3046,33 @@
       <c r="D33" s="13"/>
       <c r="E33" s="16"/>
       <c r="F33" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="31" t="s">
-        <v>111</v>
+      <c r="J33" s="30" t="s">
+        <v>113</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="M33" s="29"/>
+        <v>115</v>
+      </c>
+      <c r="M33" s="28"/>
       <c r="N33" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O33" s="11"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A34" s="11"/>
@@ -3080,33 +3081,33 @@
       <c r="D34" s="13"/>
       <c r="E34" s="16"/>
       <c r="F34" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I34" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J34" s="31" t="s">
+      <c r="J34" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="L34" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="K34" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="M34" s="29"/>
+      <c r="M34" s="28"/>
       <c r="N34" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O34" s="11"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A35" s="11"/>
@@ -3115,33 +3116,33 @@
       <c r="D35" s="13"/>
       <c r="E35" s="16"/>
       <c r="F35" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I35" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J35" s="31" t="s">
-        <v>117</v>
+      <c r="J35" s="30" t="s">
+        <v>119</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="M35" s="29"/>
+        <v>121</v>
+      </c>
+      <c r="M35" s="28"/>
       <c r="N35" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O35" s="11"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A36" s="11"/>
@@ -3150,74 +3151,74 @@
       <c r="D36" s="13"/>
       <c r="E36" s="16"/>
       <c r="F36" s="13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I36" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J36" s="31" t="s">
-        <v>121</v>
+      <c r="J36" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="M36" s="29"/>
+        <v>125</v>
+      </c>
+      <c r="M36" s="28"/>
       <c r="N36" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O36" s="11"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="30" spans="1:19">
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
       <c r="D37" s="13"/>
       <c r="E37" s="16"/>
       <c r="F37" s="13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I37" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J37" s="31" t="s">
-        <v>124</v>
+      <c r="J37" s="30" t="s">
+        <v>126</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="M37" s="29"/>
+        <v>128</v>
+      </c>
+      <c r="M37" s="28"/>
       <c r="N37" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O37" s="11"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="24" spans="1:20">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19" t="s">
-        <v>126</v>
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18" t="s">
+        <v>129</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -3244,37 +3245,37 @@
       <c r="D39" s="13"/>
       <c r="E39" s="16"/>
       <c r="F39" s="13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="15" t="s">
         <v>24</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="J39" s="31"/>
+        <v>131</v>
+      </c>
+      <c r="J39" s="30"/>
       <c r="K39" s="14" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="M39" s="29"/>
+        <v>133</v>
+      </c>
+      <c r="M39" s="28"/>
       <c r="N39" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O39" s="11"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="24" spans="1:20">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -3301,7 +3302,7 @@
       <c r="D41" s="13"/>
       <c r="E41" s="16"/>
       <c r="F41" s="13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="15" t="s">
@@ -3310,16 +3311,16 @@
       <c r="I41" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J41" s="31"/>
+      <c r="J41" s="30"/>
       <c r="K41" s="14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="M41" s="29"/>
+        <v>137</v>
+      </c>
+      <c r="M41" s="28"/>
       <c r="N41" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
@@ -3328,14 +3329,14 @@
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="45" spans="1:20">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
+    <row r="42" s="1" customFormat="1" ht="30" spans="1:20">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="13"/>
       <c r="E42" s="16"/>
       <c r="F42" s="13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="15" t="s">
@@ -3344,16 +3345,16 @@
       <c r="I42" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J42" s="31"/>
+      <c r="J42" s="30"/>
       <c r="K42" s="14" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="M42" s="29"/>
+        <v>140</v>
+      </c>
+      <c r="M42" s="28"/>
       <c r="N42" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
@@ -3362,78 +3363,78 @@
       <c r="S42" s="14"/>
       <c r="T42" s="14"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="45" spans="1:20">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G43" s="21"/>
+    <row r="43" s="1" customFormat="1" ht="30" spans="1:20">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="20"/>
       <c r="H43" s="15" t="s">
         <v>24</v>
       </c>
       <c r="I43" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J43" s="22"/>
+      <c r="J43" s="21"/>
       <c r="K43" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="L43" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="M43" s="34"/>
-      <c r="N43" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="45" spans="1:20">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="G44" s="21"/>
-      <c r="H44" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="L43" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="M43" s="33"/>
+      <c r="N43" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="30" spans="1:20">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" s="20"/>
+      <c r="H44" s="21" t="s">
         <v>24</v>
       </c>
       <c r="I44" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J44" s="22"/>
+      <c r="J44" s="21"/>
       <c r="K44" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="L44" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="M44" s="34"/>
-      <c r="N44" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
+        <v>145</v>
+      </c>
+      <c r="L44" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="M44" s="33"/>
+      <c r="N44" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A45" s="10"/>
-      <c r="B45" s="23" t="s">
-        <v>144</v>
+      <c r="B45" s="22" t="s">
+        <v>147</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -3485,7 +3486,7 @@
       <c r="D47" s="13"/>
       <c r="E47" s="16"/>
       <c r="F47" s="13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="15" t="s">
@@ -3494,24 +3495,24 @@
       <c r="I47" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J47" s="31" t="s">
-        <v>146</v>
+      <c r="J47" s="30" t="s">
+        <v>149</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="M47" s="29"/>
+        <v>151</v>
+      </c>
+      <c r="M47" s="28"/>
       <c r="N47" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O47" s="32"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="39"/>
+        <v>29</v>
+      </c>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
     </row>
     <row r="48" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A48" s="13"/>
@@ -3520,7 +3521,7 @@
       <c r="D48" s="13"/>
       <c r="E48" s="16"/>
       <c r="F48" s="13" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G48" s="16"/>
       <c r="H48" s="15" t="s">
@@ -3529,24 +3530,24 @@
       <c r="I48" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J48" s="31" t="s">
-        <v>150</v>
+      <c r="J48" s="30" t="s">
+        <v>153</v>
       </c>
       <c r="K48" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L48" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="L48" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="M48" s="29"/>
+      <c r="M48" s="28"/>
       <c r="N48" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O48" s="32"/>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="39"/>
-      <c r="S48" s="39"/>
+        <v>29</v>
+      </c>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
     </row>
     <row r="49" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A49" s="13"/>
@@ -3555,33 +3556,33 @@
       <c r="D49" s="13"/>
       <c r="E49" s="16"/>
       <c r="F49" s="13" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G49" s="16"/>
       <c r="H49" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I49" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J49" s="31" t="s">
-        <v>153</v>
+      <c r="J49" s="30" t="s">
+        <v>156</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L49" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="M49" s="29"/>
+        <v>158</v>
+      </c>
+      <c r="M49" s="28"/>
       <c r="N49" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O49" s="32"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
+        <v>29</v>
+      </c>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A50" s="13"/>
@@ -3590,35 +3591,33 @@
       <c r="D50" s="13"/>
       <c r="E50" s="16"/>
       <c r="F50" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I50" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J50" s="31" t="s">
-        <v>157</v>
+      <c r="J50" s="30" t="s">
+        <v>160</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="M50" s="29"/>
-      <c r="N50" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="39"/>
+        <v>162</v>
+      </c>
+      <c r="M50" s="28"/>
+      <c r="N50" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A51" s="13"/>
@@ -3627,7 +3626,7 @@
       <c r="D51" s="13"/>
       <c r="E51" s="16"/>
       <c r="F51" s="13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G51" s="16"/>
       <c r="H51" s="15" t="s">
@@ -3636,24 +3635,24 @@
       <c r="I51" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J51" s="31" t="s">
+      <c r="J51" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="L51" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="K51" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="L51" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="M51" s="29"/>
+      <c r="M51" s="28"/>
       <c r="N51" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O51" s="32"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
+        <v>29</v>
+      </c>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="38"/>
+      <c r="S51" s="38"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A52" s="13"/>
@@ -3662,103 +3661,103 @@
       <c r="D52" s="13"/>
       <c r="E52" s="16"/>
       <c r="F52" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G52" s="16"/>
       <c r="H52" s="15" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I52" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J52" s="31" t="s">
-        <v>166</v>
+      <c r="J52" s="30" t="s">
+        <v>167</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L52" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="M52" s="29"/>
+        <v>169</v>
+      </c>
+      <c r="M52" s="28"/>
       <c r="N52" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O52" s="32"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="30" spans="1:19">
+        <v>29</v>
+      </c>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="38"/>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="90" spans="1:19">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="16"/>
       <c r="F53" s="13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G53" s="16"/>
       <c r="H53" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I53" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J53" s="31" t="s">
-        <v>169</v>
+      <c r="J53" s="30" t="s">
+        <v>171</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="M53" s="29"/>
+        <v>173</v>
+      </c>
+      <c r="M53" s="28"/>
       <c r="N53" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O53" s="32"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-    </row>
-    <row r="54" s="1" customFormat="1" ht="90" spans="1:19">
+        <v>29</v>
+      </c>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="38"/>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="16"/>
       <c r="F54" s="13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I54" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J54" s="31" t="s">
-        <v>173</v>
+      <c r="J54" s="30" t="s">
+        <v>175</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L54" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="M54" s="29"/>
+        <v>177</v>
+      </c>
+      <c r="M54" s="28"/>
       <c r="N54" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O54" s="32"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="39"/>
+        <v>29</v>
+      </c>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="38"/>
+      <c r="S54" s="38"/>
     </row>
     <row r="55" s="1" customFormat="1" ht="30" spans="1:19">
       <c r="A55" s="13"/>
@@ -3767,455 +3766,464 @@
       <c r="D55" s="13"/>
       <c r="E55" s="16"/>
       <c r="F55" s="13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G55" s="16"/>
       <c r="H55" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I55" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J55" s="31" t="s">
-        <v>177</v>
+      <c r="J55" s="30" t="s">
+        <v>126</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L55" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="M55" s="29"/>
+      <c r="M55" s="28"/>
       <c r="N55" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O55" s="32"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-    </row>
-    <row r="56" s="1" customFormat="1" ht="30" spans="1:19">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="38"/>
+    </row>
+    <row r="56" s="2" customFormat="1" ht="30" spans="1:28">
+      <c r="A56" s="23"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="23"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="23"/>
+      <c r="U56" s="39"/>
+      <c r="V56" s="39"/>
+      <c r="W56" s="39"/>
+      <c r="X56" s="39"/>
+      <c r="Y56" s="39"/>
+      <c r="Z56" s="39"/>
+      <c r="AA56" s="39"/>
+      <c r="AB56" s="39"/>
+    </row>
+    <row r="57" s="2" customFormat="1" ht="30" spans="1:28">
+      <c r="A57" s="26"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="G56" s="16"/>
-      <c r="H56" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I56" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J56" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="K56" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="L56" s="16" t="s">
+      <c r="G57" s="28"/>
+      <c r="H57" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J57" s="28"/>
+      <c r="K57" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="M56" s="29"/>
-      <c r="N56" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O56" s="32"/>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="39"/>
-      <c r="S56" s="39"/>
-    </row>
-    <row r="57" s="2" customFormat="1" ht="30" spans="1:28">
-      <c r="A57" s="24"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="24"/>
-      <c r="S57" s="24"/>
-      <c r="T57" s="24"/>
-      <c r="U57" s="40"/>
-      <c r="V57" s="40"/>
-      <c r="W57" s="40"/>
-      <c r="X57" s="40"/>
-      <c r="Y57" s="40"/>
-      <c r="Z57" s="40"/>
-      <c r="AA57" s="40"/>
-      <c r="AB57" s="40"/>
-    </row>
-    <row r="58" s="2" customFormat="1" ht="45" spans="1:28">
-      <c r="A58" s="27"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="29" t="s">
+      <c r="L57" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="G58" s="29"/>
-      <c r="H58" s="30" t="s">
+      <c r="M57" s="28"/>
+      <c r="N57" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O57" s="26"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="26"/>
+      <c r="T57" s="26"/>
+      <c r="U57" s="39"/>
+      <c r="V57" s="39"/>
+      <c r="W57" s="39"/>
+      <c r="X57" s="39"/>
+      <c r="Y57" s="39"/>
+      <c r="Z57" s="39"/>
+      <c r="AA57" s="39"/>
+      <c r="AB57" s="39"/>
+    </row>
+    <row r="58" s="2" customFormat="1" ht="30" spans="1:28">
+      <c r="A58" s="26"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="G58" s="28"/>
+      <c r="H58" s="29" t="s">
         <v>24</v>
       </c>
       <c r="I58" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J58" s="29"/>
+      <c r="J58" s="28"/>
       <c r="K58" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L58" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="M58" s="29"/>
-      <c r="N58" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="27"/>
-      <c r="T58" s="27"/>
-      <c r="U58" s="40"/>
-      <c r="V58" s="40"/>
-      <c r="W58" s="40"/>
-      <c r="X58" s="40"/>
-      <c r="Y58" s="40"/>
-      <c r="Z58" s="40"/>
-      <c r="AA58" s="40"/>
-      <c r="AB58" s="40"/>
-    </row>
-    <row r="59" s="2" customFormat="1" ht="30" spans="1:28">
-      <c r="A59" s="27"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="G59" s="29"/>
-      <c r="H59" s="30" t="s">
+      <c r="M58" s="28"/>
+      <c r="N58" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O58" s="26"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="26"/>
+      <c r="S58" s="26"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="39"/>
+      <c r="V58" s="39"/>
+      <c r="W58" s="39"/>
+      <c r="X58" s="39"/>
+      <c r="Y58" s="39"/>
+      <c r="Z58" s="39"/>
+      <c r="AA58" s="39"/>
+      <c r="AB58" s="39"/>
+    </row>
+    <row r="59" s="2" customFormat="1" ht="15.6" spans="1:28">
+      <c r="A59" s="23"/>
+      <c r="B59" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="23"/>
+      <c r="P59" s="23"/>
+      <c r="Q59" s="23"/>
+      <c r="R59" s="23"/>
+      <c r="S59" s="23"/>
+      <c r="T59" s="23"/>
+      <c r="U59" s="39"/>
+      <c r="V59" s="39"/>
+      <c r="W59" s="39"/>
+      <c r="X59" s="39"/>
+      <c r="Y59" s="39"/>
+      <c r="Z59" s="39"/>
+      <c r="AA59" s="39"/>
+      <c r="AB59" s="39"/>
+    </row>
+    <row r="60" s="2" customFormat="1" ht="30" spans="1:28">
+      <c r="A60" s="26"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="G60" s="28"/>
+      <c r="H60" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I59" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J59" s="29"/>
-      <c r="K59" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="L59" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="M59" s="29"/>
-      <c r="N59" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="27"/>
-      <c r="T59" s="27"/>
-      <c r="U59" s="40"/>
-      <c r="V59" s="40"/>
-      <c r="W59" s="40"/>
-      <c r="X59" s="40"/>
-      <c r="Y59" s="40"/>
-      <c r="Z59" s="40"/>
-      <c r="AA59" s="40"/>
-      <c r="AB59" s="40"/>
-    </row>
-    <row r="60" s="2" customFormat="1" ht="15.6" spans="1:28">
-      <c r="A60" s="24"/>
-      <c r="B60" s="25" t="s">
+      <c r="I60" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="24"/>
-      <c r="R60" s="24"/>
-      <c r="S60" s="24"/>
-      <c r="T60" s="24"/>
-      <c r="U60" s="40"/>
-      <c r="V60" s="40"/>
-      <c r="W60" s="40"/>
-      <c r="X60" s="40"/>
-      <c r="Y60" s="40"/>
-      <c r="Z60" s="40"/>
-      <c r="AA60" s="40"/>
-      <c r="AB60" s="40"/>
+      <c r="J60" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="K60" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="L60" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="M60" s="28"/>
+      <c r="N60" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O60" s="26"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="26"/>
+      <c r="S60" s="26"/>
+      <c r="T60" s="26"/>
+      <c r="U60" s="39"/>
+      <c r="V60" s="39"/>
+      <c r="W60" s="39"/>
+      <c r="X60" s="39"/>
+      <c r="Y60" s="39"/>
+      <c r="Z60" s="39"/>
+      <c r="AA60" s="39"/>
+      <c r="AB60" s="39"/>
     </row>
     <row r="61" s="2" customFormat="1" ht="30" spans="1:28">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="G61" s="29"/>
-      <c r="H61" s="30" t="s">
+      <c r="A61" s="26"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="G61" s="28"/>
+      <c r="H61" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I61" s="29" t="s">
+      <c r="I61" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="J61" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="K61" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="J61" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="K61" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="L61" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="M61" s="29"/>
-      <c r="N61" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27"/>
-      <c r="Q61" s="27"/>
-      <c r="R61" s="27"/>
-      <c r="S61" s="27"/>
-      <c r="T61" s="27"/>
-      <c r="U61" s="40"/>
-      <c r="V61" s="40"/>
-      <c r="W61" s="40"/>
-      <c r="X61" s="40"/>
-      <c r="Y61" s="40"/>
-      <c r="Z61" s="40"/>
-      <c r="AA61" s="40"/>
-      <c r="AB61" s="40"/>
-    </row>
-    <row r="62" s="2" customFormat="1" ht="120" spans="1:28">
-      <c r="A62" s="27"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="29" t="s">
+      <c r="L61" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="G62" s="29"/>
-      <c r="H62" s="30" t="s">
+      <c r="M61" s="28"/>
+      <c r="N61" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O61" s="26"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="26"/>
+      <c r="R61" s="26"/>
+      <c r="S61" s="26"/>
+      <c r="T61" s="26"/>
+      <c r="U61" s="39"/>
+      <c r="V61" s="39"/>
+      <c r="W61" s="39"/>
+      <c r="X61" s="39"/>
+      <c r="Y61" s="39"/>
+      <c r="Z61" s="39"/>
+      <c r="AA61" s="39"/>
+      <c r="AB61" s="39"/>
+    </row>
+    <row r="62" s="2" customFormat="1" ht="30" spans="1:28">
+      <c r="A62" s="26"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G62" s="28"/>
+      <c r="H62" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I62" s="29" t="s">
+      <c r="I62" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="J62" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="K62" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="J62" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="K62" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="L62" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M62" s="29"/>
-      <c r="N62" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="27"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="27"/>
-      <c r="U62" s="40"/>
-      <c r="V62" s="40"/>
-      <c r="W62" s="40"/>
-      <c r="X62" s="40"/>
-      <c r="Y62" s="40"/>
-      <c r="Z62" s="40"/>
-      <c r="AA62" s="40"/>
-      <c r="AB62" s="40"/>
+      <c r="L62" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="M62" s="28"/>
+      <c r="N62" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O62" s="26"/>
+      <c r="P62" s="26"/>
+      <c r="Q62" s="26"/>
+      <c r="R62" s="26"/>
+      <c r="S62" s="26"/>
+      <c r="T62" s="26"/>
+      <c r="U62" s="39"/>
+      <c r="V62" s="39"/>
+      <c r="W62" s="39"/>
+      <c r="X62" s="39"/>
+      <c r="Y62" s="39"/>
+      <c r="Z62" s="39"/>
+      <c r="AA62" s="39"/>
+      <c r="AB62" s="39"/>
     </row>
     <row r="63" s="2" customFormat="1" ht="30" spans="1:28">
-      <c r="A63" s="27"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="G63" s="29"/>
-      <c r="H63" s="30" t="s">
+      <c r="A63" s="26"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="G63" s="28"/>
+      <c r="H63" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I63" s="29" t="s">
+      <c r="I63" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="J63" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="K63" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="J63" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="K63" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="L63" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="M63" s="29"/>
-      <c r="N63" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O63" s="27"/>
-      <c r="P63" s="27"/>
-      <c r="Q63" s="27"/>
-      <c r="R63" s="27"/>
-      <c r="S63" s="27"/>
-      <c r="T63" s="27"/>
-      <c r="U63" s="40"/>
-      <c r="V63" s="40"/>
-      <c r="W63" s="40"/>
-      <c r="X63" s="40"/>
-      <c r="Y63" s="40"/>
-      <c r="Z63" s="40"/>
-      <c r="AA63" s="40"/>
-      <c r="AB63" s="40"/>
+      <c r="L63" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="M63" s="28"/>
+      <c r="N63" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O63" s="26"/>
+      <c r="P63" s="26"/>
+      <c r="Q63" s="26"/>
+      <c r="R63" s="26"/>
+      <c r="S63" s="26"/>
+      <c r="T63" s="26"/>
+      <c r="U63" s="39"/>
+      <c r="V63" s="39"/>
+      <c r="W63" s="39"/>
+      <c r="X63" s="39"/>
+      <c r="Y63" s="39"/>
+      <c r="Z63" s="39"/>
+      <c r="AA63" s="39"/>
+      <c r="AB63" s="39"/>
     </row>
     <row r="64" s="2" customFormat="1" ht="60" spans="1:28">
-      <c r="A64" s="27"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="G64" s="29"/>
-      <c r="H64" s="30" t="s">
+      <c r="A64" s="26"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G64" s="28"/>
+      <c r="H64" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I64" s="29" t="s">
+      <c r="I64" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="J64" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="K64" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="J64" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="K64" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="L64" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="M64" s="29"/>
-      <c r="N64" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O64" s="27"/>
-      <c r="P64" s="27"/>
-      <c r="Q64" s="27"/>
-      <c r="R64" s="27"/>
-      <c r="S64" s="27"/>
-      <c r="T64" s="27"/>
-      <c r="U64" s="40"/>
-      <c r="V64" s="40"/>
-      <c r="W64" s="40"/>
-      <c r="X64" s="40"/>
-      <c r="Y64" s="40"/>
-      <c r="Z64" s="40"/>
-      <c r="AA64" s="40"/>
-      <c r="AB64" s="40"/>
+      <c r="L64" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="M64" s="28"/>
+      <c r="N64" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O64" s="26"/>
+      <c r="P64" s="26"/>
+      <c r="Q64" s="26"/>
+      <c r="R64" s="26"/>
+      <c r="S64" s="26"/>
+      <c r="T64" s="26"/>
+      <c r="U64" s="39"/>
+      <c r="V64" s="39"/>
+      <c r="W64" s="39"/>
+      <c r="X64" s="39"/>
+      <c r="Y64" s="39"/>
+      <c r="Z64" s="39"/>
+      <c r="AA64" s="39"/>
+      <c r="AB64" s="39"/>
     </row>
     <row r="65" s="2" customFormat="1" ht="15.6" spans="1:28">
-      <c r="A65" s="27"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="36"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="27"/>
-      <c r="Q65" s="27"/>
-      <c r="R65" s="27"/>
-      <c r="S65" s="27"/>
-      <c r="T65" s="27"/>
-      <c r="U65" s="40"/>
-      <c r="V65" s="40"/>
-      <c r="W65" s="40"/>
-      <c r="X65" s="40"/>
-      <c r="Y65" s="40"/>
-      <c r="Z65" s="40"/>
-      <c r="AA65" s="40"/>
-      <c r="AB65" s="40"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="26"/>
+      <c r="P65" s="26"/>
+      <c r="Q65" s="26"/>
+      <c r="R65" s="26"/>
+      <c r="S65" s="26"/>
+      <c r="T65" s="26"/>
+      <c r="U65" s="39"/>
+      <c r="V65" s="39"/>
+      <c r="W65" s="39"/>
+      <c r="X65" s="39"/>
+      <c r="Y65" s="39"/>
+      <c r="Z65" s="39"/>
+      <c r="AA65" s="39"/>
+      <c r="AB65" s="39"/>
     </row>
     <row r="66" s="2" customFormat="1" ht="15.6" spans="1:28">
-      <c r="A66" s="27"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="27"/>
-      <c r="P66" s="27"/>
-      <c r="Q66" s="27"/>
-      <c r="R66" s="27"/>
-      <c r="S66" s="27"/>
-      <c r="T66" s="27"/>
-      <c r="U66" s="40"/>
-      <c r="V66" s="40"/>
-      <c r="W66" s="40"/>
-      <c r="X66" s="40"/>
-      <c r="Y66" s="40"/>
-      <c r="Z66" s="40"/>
-      <c r="AA66" s="40"/>
-      <c r="AB66" s="40"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="26"/>
+      <c r="P66" s="26"/>
+      <c r="Q66" s="26"/>
+      <c r="R66" s="26"/>
+      <c r="S66" s="26"/>
+      <c r="T66" s="26"/>
+      <c r="U66" s="39"/>
+      <c r="V66" s="39"/>
+      <c r="W66" s="39"/>
+      <c r="X66" s="39"/>
+      <c r="Y66" s="39"/>
+      <c r="Z66" s="39"/>
+      <c r="AA66" s="39"/>
+      <c r="AB66" s="39"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB59">
+  <autoFilter ref="A1:AB64">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/0咪咕音乐/咪咕音乐v390爱唱优化/咪咕爱唱.xlsx
+++ b/0咪咕音乐/咪咕音乐v390爱唱优化/咪咕爱唱.xlsx
@@ -527,17 +527,17 @@
 2、查看返回报文</t>
   </si>
   <si>
-    <t>不支持歌手全匹配</t>
-  </si>
-  <si>
-    <t>zjl/zhoujielun</t>
+    <t>支持歌手全匹配</t>
+  </si>
+  <si>
+    <t>zjl/zhoujielun/wb</t>
   </si>
   <si>
     <t>1、爱唱视频接口搜索zjl
 2、查看返回报文</t>
   </si>
   <si>
-    <t>1、请求成功，不返回mv周杰伦hot大于1万或hotlevel大于1的mv</t>
+    <t>1、请求成功，返回mv周杰伦/伍佰的mv靠后</t>
   </si>
   <si>
     <t>简拼前缀</t>
@@ -1938,9 +1938,9 @@
   <dimension ref="A1:AB66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="$A49:$XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>

--- a/0咪咕音乐/咪咕音乐v390爱唱优化/咪咕爱唱.xlsx
+++ b/0咪咕音乐/咪咕音乐v390爱唱优化/咪咕爱唱.xlsx
@@ -530,7 +530,7 @@
     <t>支持歌手全匹配</t>
   </si>
   <si>
-    <t>zjl/zhoujielun/wb</t>
+    <t>zjl/zhoujielun/wubai</t>
   </si>
   <si>
     <t>1、爱唱视频接口搜索zjl
@@ -691,8 +691,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -779,14 +779,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -794,24 +786,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,9 +841,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,18 +856,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -896,7 +873,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,7 +929,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,7 +1031,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,91 +1061,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,61 +1109,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,6 +1222,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1237,16 +1252,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1256,6 +1280,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1279,45 +1318,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1326,145 +1326,145 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1938,9 +1938,9 @@
   <dimension ref="A1:AB66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="$A49:$XFD49"/>
+      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>

--- a/0咪咕音乐/咪咕音乐v390爱唱优化/咪咕爱唱.xlsx
+++ b/0咪咕音乐/咪咕音乐v390爱唱优化/咪咕爱唱.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="205">
   <si>
     <t>*功能模块</t>
   </si>
@@ -323,11 +323,14 @@
     <t>孤梦（网剧《山河令》插曲）”，歌手张哲瀚；则输入“GMZ”可显示</t>
   </si>
   <si>
-    <t>1、爱唱歌曲接口搜索GMZ
+    <t>1、爱唱歌曲接口搜索GMZ/gnzwd
 2、查看返回报文</t>
   </si>
   <si>
     <t>1、接口请求成功，返回歌曲孤梦</t>
+  </si>
+  <si>
+    <t>无版权</t>
   </si>
   <si>
     <t>歌曲名检索时，不支持歌曲别名检索</t>
@@ -692,9 +695,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -759,7 +762,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,38 +828,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,8 +842,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,21 +866,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -866,14 +876,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -887,16 +890,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,7 +932,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,169 +1100,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,6 +1225,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1237,21 +1284,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1262,24 +1294,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1302,19 +1316,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1326,10 +1329,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1338,133 +1341,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1937,10 +1940,10 @@
   <sheetPr/>
   <dimension ref="A1:AB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
+      <selection pane="bottomLeft" activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -2860,7 +2863,9 @@
       <c r="L27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="M27" s="28"/>
+      <c r="M27" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="N27" s="14" t="s">
         <v>29</v>
       </c>
@@ -2877,7 +2882,7 @@
       <c r="D28" s="13"/>
       <c r="E28" s="16"/>
       <c r="F28" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="15" t="s">
@@ -2887,13 +2892,13 @@
         <v>25</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M28" s="28"/>
       <c r="N28" s="14" t="s">
@@ -2912,7 +2917,7 @@
       <c r="D29" s="13"/>
       <c r="E29" s="16"/>
       <c r="F29" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="15" t="s">
@@ -2923,10 +2928,10 @@
       </c>
       <c r="J29" s="30"/>
       <c r="K29" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M29" s="28"/>
       <c r="N29" s="14" t="s">
@@ -2945,7 +2950,7 @@
       <c r="D30" s="13"/>
       <c r="E30" s="16"/>
       <c r="F30" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="15" t="s">
@@ -2956,10 +2961,10 @@
       </c>
       <c r="J30" s="30"/>
       <c r="K30" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M30" s="28"/>
       <c r="N30" s="14"/>
@@ -2976,7 +2981,7 @@
       <c r="D31" s="13"/>
       <c r="E31" s="16"/>
       <c r="F31" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="15" t="s">
@@ -2986,13 +2991,13 @@
         <v>25</v>
       </c>
       <c r="J31" s="30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M31" s="28"/>
       <c r="N31" s="14" t="s">
@@ -3011,7 +3016,7 @@
       <c r="D32" s="13"/>
       <c r="E32" s="16"/>
       <c r="F32" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="15" t="s">
@@ -3021,13 +3026,13 @@
         <v>25</v>
       </c>
       <c r="J32" s="30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M32" s="28"/>
       <c r="N32" s="14" t="s">
@@ -3046,7 +3051,7 @@
       <c r="D33" s="13"/>
       <c r="E33" s="16"/>
       <c r="F33" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="15" t="s">
@@ -3056,13 +3061,13 @@
         <v>25</v>
       </c>
       <c r="J33" s="30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M33" s="28"/>
       <c r="N33" s="14" t="s">
@@ -3081,7 +3086,7 @@
       <c r="D34" s="13"/>
       <c r="E34" s="16"/>
       <c r="F34" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="15" t="s">
@@ -3091,13 +3096,13 @@
         <v>25</v>
       </c>
       <c r="J34" s="30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M34" s="28"/>
       <c r="N34" s="14" t="s">
@@ -3116,7 +3121,7 @@
       <c r="D35" s="13"/>
       <c r="E35" s="16"/>
       <c r="F35" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="15" t="s">
@@ -3126,13 +3131,13 @@
         <v>25</v>
       </c>
       <c r="J35" s="30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M35" s="28"/>
       <c r="N35" s="14" t="s">
@@ -3151,7 +3156,7 @@
       <c r="D36" s="13"/>
       <c r="E36" s="16"/>
       <c r="F36" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="15" t="s">
@@ -3161,13 +3166,13 @@
         <v>25</v>
       </c>
       <c r="J36" s="30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M36" s="28"/>
       <c r="N36" s="14" t="s">
@@ -3186,7 +3191,7 @@
       <c r="D37" s="13"/>
       <c r="E37" s="16"/>
       <c r="F37" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="15" t="s">
@@ -3196,13 +3201,13 @@
         <v>25</v>
       </c>
       <c r="J37" s="30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M37" s="28"/>
       <c r="N37" s="14" t="s">
@@ -3218,7 +3223,7 @@
       <c r="A38" s="17"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -3245,21 +3250,21 @@
       <c r="D39" s="13"/>
       <c r="E39" s="16"/>
       <c r="F39" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="15" t="s">
         <v>24</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J39" s="30"/>
       <c r="K39" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M39" s="28"/>
       <c r="N39" s="14" t="s">
@@ -3275,7 +3280,7 @@
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -3302,7 +3307,7 @@
       <c r="D41" s="13"/>
       <c r="E41" s="16"/>
       <c r="F41" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="15" t="s">
@@ -3313,10 +3318,10 @@
       </c>
       <c r="J41" s="30"/>
       <c r="K41" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M41" s="28"/>
       <c r="N41" s="14" t="s">
@@ -3336,7 +3341,7 @@
       <c r="D42" s="13"/>
       <c r="E42" s="16"/>
       <c r="F42" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="15" t="s">
@@ -3347,10 +3352,10 @@
       </c>
       <c r="J42" s="30"/>
       <c r="K42" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M42" s="28"/>
       <c r="N42" s="14" t="s">
@@ -3370,7 +3375,7 @@
       <c r="D43" s="19"/>
       <c r="E43" s="20"/>
       <c r="F43" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G43" s="20"/>
       <c r="H43" s="15" t="s">
@@ -3381,10 +3386,10 @@
       </c>
       <c r="J43" s="21"/>
       <c r="K43" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L43" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M43" s="33"/>
       <c r="N43" s="20" t="s">
@@ -3404,7 +3409,7 @@
       <c r="D44" s="19"/>
       <c r="E44" s="20"/>
       <c r="F44" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="21" t="s">
@@ -3415,10 +3420,10 @@
       </c>
       <c r="J44" s="21"/>
       <c r="K44" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L44" s="20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M44" s="33"/>
       <c r="N44" s="20" t="s">
@@ -3434,7 +3439,7 @@
     <row r="45" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A45" s="10"/>
       <c r="B45" s="22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -3486,7 +3491,7 @@
       <c r="D47" s="13"/>
       <c r="E47" s="16"/>
       <c r="F47" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="15" t="s">
@@ -3496,13 +3501,13 @@
         <v>25</v>
       </c>
       <c r="J47" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M47" s="28"/>
       <c r="N47" s="14" t="s">
@@ -3521,7 +3526,7 @@
       <c r="D48" s="13"/>
       <c r="E48" s="16"/>
       <c r="F48" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G48" s="16"/>
       <c r="H48" s="15" t="s">
@@ -3531,13 +3536,13 @@
         <v>25</v>
       </c>
       <c r="J48" s="30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M48" s="28"/>
       <c r="N48" s="14" t="s">
@@ -3556,7 +3561,7 @@
       <c r="D49" s="13"/>
       <c r="E49" s="16"/>
       <c r="F49" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G49" s="16"/>
       <c r="H49" s="15" t="s">
@@ -3566,13 +3571,13 @@
         <v>25</v>
       </c>
       <c r="J49" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L49" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M49" s="28"/>
       <c r="N49" s="14" t="s">
@@ -3591,7 +3596,7 @@
       <c r="D50" s="13"/>
       <c r="E50" s="16"/>
       <c r="F50" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="15" t="s">
@@ -3601,13 +3606,13 @@
         <v>25</v>
       </c>
       <c r="J50" s="30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M50" s="28"/>
       <c r="N50" s="14" t="s">
@@ -3626,7 +3631,7 @@
       <c r="D51" s="13"/>
       <c r="E51" s="16"/>
       <c r="F51" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G51" s="16"/>
       <c r="H51" s="15" t="s">
@@ -3636,13 +3641,13 @@
         <v>25</v>
       </c>
       <c r="J51" s="30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L51" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M51" s="28"/>
       <c r="N51" s="14" t="s">
@@ -3661,7 +3666,7 @@
       <c r="D52" s="13"/>
       <c r="E52" s="16"/>
       <c r="F52" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G52" s="16"/>
       <c r="H52" s="15" t="s">
@@ -3671,13 +3676,13 @@
         <v>25</v>
       </c>
       <c r="J52" s="30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L52" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M52" s="28"/>
       <c r="N52" s="14" t="s">
@@ -3696,7 +3701,7 @@
       <c r="D53" s="13"/>
       <c r="E53" s="16"/>
       <c r="F53" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G53" s="16"/>
       <c r="H53" s="15" t="s">
@@ -3706,13 +3711,13 @@
         <v>25</v>
       </c>
       <c r="J53" s="30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M53" s="28"/>
       <c r="N53" s="14" t="s">
@@ -3731,7 +3736,7 @@
       <c r="D54" s="13"/>
       <c r="E54" s="16"/>
       <c r="F54" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="15" t="s">
@@ -3741,13 +3746,13 @@
         <v>25</v>
       </c>
       <c r="J54" s="30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L54" s="16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M54" s="28"/>
       <c r="N54" s="14" t="s">
@@ -3766,7 +3771,7 @@
       <c r="D55" s="13"/>
       <c r="E55" s="16"/>
       <c r="F55" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G55" s="16"/>
       <c r="H55" s="15" t="s">
@@ -3776,13 +3781,13 @@
         <v>25</v>
       </c>
       <c r="J55" s="30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M55" s="28"/>
       <c r="N55" s="14" t="s">
@@ -3798,7 +3803,7 @@
       <c r="A56" s="23"/>
       <c r="B56" s="24"/>
       <c r="C56" s="24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
@@ -3833,7 +3838,7 @@
       <c r="D57" s="26"/>
       <c r="E57" s="27"/>
       <c r="F57" s="28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G57" s="28"/>
       <c r="H57" s="29" t="s">
@@ -3844,10 +3849,10 @@
       </c>
       <c r="J57" s="28"/>
       <c r="K57" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M57" s="28"/>
       <c r="N57" s="35" t="s">
@@ -3875,7 +3880,7 @@
       <c r="D58" s="26"/>
       <c r="E58" s="27"/>
       <c r="F58" s="28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G58" s="28"/>
       <c r="H58" s="29" t="s">
@@ -3886,10 +3891,10 @@
       </c>
       <c r="J58" s="28"/>
       <c r="K58" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L58" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M58" s="28"/>
       <c r="N58" s="35" t="s">
@@ -3913,7 +3918,7 @@
     <row r="59" s="2" customFormat="1" ht="15.6" spans="1:28">
       <c r="A59" s="23"/>
       <c r="B59" s="24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
@@ -3949,23 +3954,23 @@
       <c r="D60" s="26"/>
       <c r="E60" s="27"/>
       <c r="F60" s="28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G60" s="28"/>
       <c r="H60" s="29" t="s">
         <v>24</v>
       </c>
       <c r="I60" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J60" s="28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K60" s="28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L60" s="28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M60" s="28"/>
       <c r="N60" s="35" t="s">
@@ -3993,23 +3998,23 @@
       <c r="D61" s="26"/>
       <c r="E61" s="27"/>
       <c r="F61" s="28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G61" s="28"/>
       <c r="H61" s="29" t="s">
         <v>24</v>
       </c>
       <c r="I61" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J61" s="28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K61" s="28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L61" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M61" s="28"/>
       <c r="N61" s="35" t="s">
@@ -4037,23 +4042,23 @@
       <c r="D62" s="26"/>
       <c r="E62" s="27"/>
       <c r="F62" s="28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G62" s="28"/>
       <c r="H62" s="29" t="s">
         <v>24</v>
       </c>
       <c r="I62" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J62" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K62" s="28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L62" s="28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M62" s="28"/>
       <c r="N62" s="35" t="s">
@@ -4081,23 +4086,23 @@
       <c r="D63" s="26"/>
       <c r="E63" s="27"/>
       <c r="F63" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G63" s="28"/>
       <c r="H63" s="29" t="s">
         <v>24</v>
       </c>
       <c r="I63" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J63" s="28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K63" s="28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L63" s="28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M63" s="28"/>
       <c r="N63" s="35" t="s">
@@ -4125,23 +4130,23 @@
       <c r="D64" s="26"/>
       <c r="E64" s="27"/>
       <c r="F64" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G64" s="28"/>
       <c r="H64" s="29" t="s">
         <v>24</v>
       </c>
       <c r="I64" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J64" s="28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K64" s="28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L64" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M64" s="28"/>
       <c r="N64" s="35" t="s">

--- a/0咪咕音乐/咪咕音乐v390爱唱优化/咪咕爱唱.xlsx
+++ b/0咪咕音乐/咪咕音乐v390爱唱优化/咪咕爱唱.xlsx
@@ -694,10 +694,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -762,24 +762,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -791,7 +792,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,22 +807,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,8 +820,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -851,16 +860,31 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -874,32 +898,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -932,7 +932,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,7 +950,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,13 +1010,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,109 +1082,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,31 +1112,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,30 +1224,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1269,16 +1245,49 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1298,26 +1307,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1329,10 +1329,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1341,133 +1341,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1941,9 +1941,9 @@
   <dimension ref="A1:AB66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L56" sqref="L56"/>
+      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>

--- a/0咪咕音乐/咪咕音乐v390爱唱优化/咪咕爱唱.xlsx
+++ b/0咪咕音乐/咪咕音乐v390爱唱优化/咪咕爱唱.xlsx
@@ -694,10 +694,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -768,9 +768,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,25 +783,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -814,62 +806,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,17 +828,80 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -932,7 +932,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,7 +944,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,7 +1010,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,61 +1064,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,31 +1076,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,49 +1106,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,11 +1226,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1240,6 +1238,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1255,39 +1262,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1321,6 +1295,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1329,10 +1329,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1344,13 +1344,13 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1359,115 +1359,115 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1940,10 +1940,10 @@
   <sheetPr/>
   <dimension ref="A1:AB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomLeft" activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>

--- a/0咪咕音乐/咪咕音乐v390爱唱优化/咪咕爱唱.xlsx
+++ b/0咪咕音乐/咪咕音乐v390爱唱优化/咪咕爱唱.xlsx
@@ -694,10 +694,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -761,6 +761,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -775,16 +783,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -792,21 +830,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -820,51 +844,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -873,9 +852,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,8 +883,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -938,7 +938,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,19 +992,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,31 +1052,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,19 +1082,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,79 +1112,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,20 +1233,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1281,17 +1278,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1321,6 +1312,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1329,10 +1329,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1341,133 +1341,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1941,9 +1941,9 @@
   <dimension ref="A1:AB66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J64" sqref="J64"/>
+      <selection pane="bottomLeft" activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>

--- a/0咪咕音乐/咪咕音乐v390爱唱优化/咪咕爱唱.xlsx
+++ b/0咪咕音乐/咪咕音乐v390爱唱优化/咪咕爱唱.xlsx
@@ -694,9 +694,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -761,9 +761,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,20 +786,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,38 +800,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,9 +829,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,16 +852,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -883,25 +883,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -932,7 +932,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,13 +998,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,19 +1040,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,67 +1082,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,31 +1094,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,25 +1112,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,8 +1227,49 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1248,17 +1289,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1281,43 +1316,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1329,145 +1329,145 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1941,9 +1941,9 @@
   <dimension ref="A1:AB66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L58" sqref="L58"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57:L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
